--- a/data/trans_dic/P3A$pareja-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A$pareja-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.4656210250257058</v>
+        <v>0.4656210250257057</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.09809770941120603</v>
+        <v>0.09809770941120602</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2499098013076409</v>
+        <v>0.2499098013076408</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4274715446423205</v>
+        <v>0.4242544916806026</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08185265409754909</v>
+        <v>0.08217655466612719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2301515966983799</v>
+        <v>0.2293566581315609</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.506201269695453</v>
+        <v>0.5061820009595753</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1156691273716971</v>
+        <v>0.1161607213277556</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2720959640045715</v>
+        <v>0.2706707211702556</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.4838273149999237</v>
+        <v>0.4838273149999236</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.2385694221857657</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4599506248572723</v>
+        <v>0.4585951625401435</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2231274200488154</v>
+        <v>0.2225409143426074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3480153280003674</v>
+        <v>0.347543796935729</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5078666614215882</v>
+        <v>0.5050425777683712</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.255254689844902</v>
+        <v>0.2532009157937234</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.377962504395116</v>
+        <v>0.3769892053134202</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.3153958415560001</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4265653843613673</v>
+        <v>0.4265653843613672</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4984047324256338</v>
+        <v>0.500360210321612</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2878596874930673</v>
+        <v>0.2847641562914617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4023129808723558</v>
+        <v>0.402120669240799</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5829522154161753</v>
+        <v>0.5798130839652788</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3455605920638287</v>
+        <v>0.3449780007888238</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4538085110076942</v>
+        <v>0.4528735861036125</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4740086400718865</v>
+        <v>0.4736267243670103</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2126614041005831</v>
+        <v>0.2107778915417039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3423170006038371</v>
+        <v>0.3421817054964141</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5111548105217036</v>
+        <v>0.5113656436247894</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2354785463169786</v>
+        <v>0.2348763030502442</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3642813134981598</v>
+        <v>0.3651026886002622</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>247305</v>
+        <v>245444</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>67286</v>
+        <v>67552</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>322343</v>
+        <v>321229</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>292852</v>
+        <v>292841</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>95084</v>
+        <v>95489</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>381089</v>
+        <v>379092</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1025447</v>
+        <v>1022426</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>484219</v>
+        <v>482946</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1531135</v>
+        <v>1529061</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1132275</v>
+        <v>1125979</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>553940</v>
+        <v>549483</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1662891</v>
+        <v>1658609</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>354658</v>
+        <v>356050</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>211541</v>
+        <v>209267</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>581931</v>
+        <v>581653</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>414821</v>
+        <v>412587</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>253945</v>
+        <v>253516</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>656418</v>
+        <v>655065</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1668316</v>
+        <v>1666972</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>792602</v>
+        <v>785582</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2480652</v>
+        <v>2479672</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1799055</v>
+        <v>1799797</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>877643</v>
+        <v>875399</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2639820</v>
+        <v>2645772</v>
       </c>
     </row>
     <row r="20">
